--- a/Planning CLE4.xlsx
+++ b/Planning CLE4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gijsbijvoets/Dropbox/School/CLE 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gijsbijvoets/Documents/GitHub/luchador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB38FDD-1AC7-DC4F-B30F-F4D446B1CD48}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2A9BFC9C-2374-5243-94BE-65AE3560FDD4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{93C22D58-5BC5-3548-9518-E160AE488844}"/>
+    <workbookView xWindow="6620" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{93C22D58-5BC5-3548-9518-E160AE488844}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>planning cle 4</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game map </t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B4C2C1-28BA-D54F-BFA2-9E55CB21165F}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,6 +694,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
